--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00DATA\00Project\xlsx2rtl\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76AF2014-9E5A-48A9-AFEA-652FCC8A995C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386C206D-CA3E-43B4-B37D-2EE88C3D0BF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="register_set" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
   <si>
     <t>Description</t>
   </si>
@@ -51,18 +51,12 @@
     <t>0x0</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>field3</t>
   </si>
   <si>
     <t>field4</t>
   </si>
   <si>
-    <t>0x2</t>
-  </si>
-  <si>
     <t>register</t>
   </si>
   <si>
@@ -78,40 +72,79 @@
     <t>Field</t>
   </si>
   <si>
-    <t>[1:0]</t>
-  </si>
-  <si>
-    <t>[3:2]</t>
-  </si>
-  <si>
-    <t>[5:4]</t>
-  </si>
-  <si>
-    <t>[7:6]</t>
-  </si>
-  <si>
-    <t>Reset Value</t>
-  </si>
-  <si>
-    <t>Bit Range</t>
-  </si>
-  <si>
     <t>comment</t>
   </si>
   <si>
-    <t>0x8</t>
-  </si>
-  <si>
-    <t>ADDR_REG1</t>
-  </si>
-  <si>
-    <t>ADDR_REG2</t>
-  </si>
-  <si>
     <t>parameter</t>
   </si>
   <si>
     <t>UART</t>
+  </si>
+  <si>
+    <t>REG1</t>
+  </si>
+  <si>
+    <t>Port_Name</t>
+  </si>
+  <si>
+    <t>Bit_Range</t>
+  </si>
+  <si>
+    <t>Reset_Value</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>REG2</t>
+  </si>
+  <si>
+    <t>[31:11]</t>
+  </si>
+  <si>
+    <t>0xA</t>
+  </si>
+  <si>
+    <t>[10: 9]</t>
+  </si>
+  <si>
+    <t>[ 8: 4]</t>
+  </si>
+  <si>
+    <t>[ 3: 0]</t>
+  </si>
+  <si>
+    <t>[ 4   ]</t>
+  </si>
+  <si>
+    <t>[10: 5]</t>
+  </si>
+  <si>
+    <t>[11   ]</t>
+  </si>
+  <si>
+    <t>portA[ 3: 0]</t>
+  </si>
+  <si>
+    <t>portB[ 4: 0]</t>
+  </si>
+  <si>
+    <t>portB[ 6: 5]</t>
+  </si>
+  <si>
+    <t>portA[ 7: 4]</t>
+  </si>
+  <si>
+    <t>reserved</t>
+  </si>
+  <si>
+    <t>portB[7   ]</t>
+  </si>
+  <si>
+    <t>portC[5: 0]</t>
+  </si>
+  <si>
+    <t>portC[6   ]</t>
   </si>
 </sst>
 </file>
@@ -189,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -219,12 +252,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -509,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,70 +547,76 @@
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" customWidth="1"/>
     <col min="3" max="4" width="14.77734375" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="7" width="35.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="14">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="14">
+      <c r="B2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="12">
+        <v>16</v>
+      </c>
+      <c r="D2" s="12">
         <v>32</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7"/>
+      <c r="G3" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>3</v>
@@ -591,185 +624,210 @@
       <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="C6" s="9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="10"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F8" s="9"/>
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="13"/>
+        <v>10</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="7"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>11</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="B12" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="C12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="9" t="s">
+    <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="11" t="s">
+      <c r="C13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00DATA\00Project\xlsx2rtl\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386C206D-CA3E-43B4-B37D-2EE88C3D0BF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DC9A8C-31E8-47E1-BB19-0E1000064E7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,7 +539,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,7 +636,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>27</v>
@@ -688,7 +688,7 @@
         <v>24</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>22</v>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00DATA\00Project\xlsx2rtl\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DC9A8C-31E8-47E1-BB19-0E1000064E7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18566F0C-2886-4065-809B-25B6955DE1B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -636,7 +636,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>27</v>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00DATA\00Project\xlsx2rtl\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18566F0C-2886-4065-809B-25B6955DE1B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F027FB8-6FE9-4536-9B8D-C8A5C7B756E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
   <si>
     <t>Description</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>portC[6   ]</t>
+  </si>
+  <si>
+    <t>0x4</t>
   </si>
 </sst>
 </file>
@@ -539,7 +542,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,7 +720,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>

--- a/test/test.xlsx
+++ b/test/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00DATA\00Project\xlsx2rtl\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F027FB8-6FE9-4536-9B8D-C8A5C7B756E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C521BCC-E44C-4811-BEE0-01557D70F88B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="44">
   <si>
     <t>Description</t>
   </si>
@@ -126,21 +126,12 @@
     <t>portA[ 3: 0]</t>
   </si>
   <si>
-    <t>portB[ 4: 0]</t>
-  </si>
-  <si>
-    <t>portB[ 6: 5]</t>
-  </si>
-  <si>
     <t>portA[ 7: 4]</t>
   </si>
   <si>
     <t>reserved</t>
   </si>
   <si>
-    <t>portB[7   ]</t>
-  </si>
-  <si>
     <t>portC[5: 0]</t>
   </si>
   <si>
@@ -148,6 +139,24 @@
   </si>
   <si>
     <t>0x4</t>
+  </si>
+  <si>
+    <t>REG3</t>
+  </si>
+  <si>
+    <t>0x8</t>
+  </si>
+  <si>
+    <t>[ 31: 0]</t>
+  </si>
+  <si>
+    <t>portD[31:0]</t>
+  </si>
+  <si>
+    <t>portB[ 1: 0]</t>
+  </si>
+  <si>
+    <t>portB[2   ]</t>
   </si>
 </sst>
 </file>
@@ -539,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -639,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>27</v>
@@ -650,9 +659,7 @@
       <c r="E5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>33</v>
-      </c>
+      <c r="F5" s="9"/>
       <c r="G5" s="11" t="s">
         <v>5</v>
       </c>
@@ -671,10 +678,10 @@
         <v>3</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G6" s="11" t="s">
         <v>5</v>
@@ -685,7 +692,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>24</v>
@@ -720,7 +727,7 @@
         <v>23</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -746,7 +753,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>5</v>
@@ -769,7 +776,7 @@
         <v>22</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G11" s="11" t="s">
         <v>5</v>
@@ -792,7 +799,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G12" s="11" t="s">
         <v>5</v>
@@ -815,7 +822,7 @@
         <v>4</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G13" s="11" t="s">
         <v>5</v>
@@ -832,6 +839,57 @@
       <c r="F14" s="9"/>
       <c r="G14" s="11"/>
     </row>
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
